--- a/zr75_data_MCF7only.xlsx
+++ b/zr75_data_MCF7only.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarkpg\Downloads\new data2\new data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\BC\Technicians\LET\Projects\LET02-Theradesign (groningen)\paper\240524_excel files for submitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2ECE58-BB9B-4606-8616-A5589D23517A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D786B7F7-5E25-410A-911F-F0E1B39D2CED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="49">
   <si>
     <t>Akt</t>
   </si>
@@ -59,9 +59,6 @@
     <t>MCF-7 120 minutes ins + aa</t>
   </si>
   <si>
-    <t>Table S1: Model input data from MCF7 and ZR-75-1 experiments</t>
-  </si>
-  <si>
     <t>Description:</t>
   </si>
   <si>
@@ -110,27 +107,6 @@
     <t>Normalized data:</t>
   </si>
   <si>
-    <t>Akt-pT308</t>
-  </si>
-  <si>
-    <t>Akt-pS473</t>
-  </si>
-  <si>
-    <t>PRAS40-pT246</t>
-  </si>
-  <si>
-    <t>S6K-pT389</t>
-  </si>
-  <si>
-    <t>TSC2-pT1462</t>
-  </si>
-  <si>
-    <t>4E-BP1-pT37/46</t>
-  </si>
-  <si>
-    <t>IRS1-pS636/639</t>
-  </si>
-  <si>
     <t>Average:</t>
   </si>
   <si>
@@ -183,6 +159,15 @@
   </si>
   <si>
     <t>4E-BP1pT37/46</t>
+  </si>
+  <si>
+    <t>n.d.</t>
+  </si>
+  <si>
+    <t>Table S1: Model input data from MCF7 cell line</t>
+  </si>
+  <si>
+    <t>orange background color</t>
   </si>
 </sst>
 </file>
@@ -587,7 +572,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -621,6 +605,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,9 +624,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -679,9 +664,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -714,9 +699,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -749,9 +751,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -925,83 +944,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6E7BA2-BC25-4D99-8764-7AC63E3D3896}">
-  <dimension ref="A1:BI62"/>
+  <dimension ref="A1:BC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="Z44" sqref="Z44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.90625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="29.7265625" customWidth="1"/>
+    <col min="24" max="24" width="27.109375" customWidth="1"/>
     <col min="25" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="30" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="40" max="49" width="12" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="51" max="57" width="12" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="59" max="61" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="2" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="3" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="4" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="5" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="7" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="8" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="9" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="11" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="12" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="13" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="14" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="15" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="3" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="8" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="9" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="10" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="11" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="12" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="13" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="15" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
     </row>
-    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:61" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="28" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>0</v>
@@ -1010,13 +1029,13 @@
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
       <c r="J35" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -1028,236 +1047,225 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="3"/>
       <c r="V35" s="1"/>
       <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="1" t="s">
+      <c r="X35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="1" t="s">
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AM35" s="2"/>
-      <c r="AN35" s="2"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ35" s="2"/>
-      <c r="AR35" s="2"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="1" t="s">
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AU35" s="2"/>
-      <c r="AV35" s="2"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AY35" s="2"/>
-      <c r="AZ35" s="2"/>
-      <c r="BA35" s="3"/>
-      <c r="BB35" s="1" t="s">
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BC35" s="2"/>
-      <c r="BD35" s="2"/>
-      <c r="BE35" s="3"/>
-      <c r="BF35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BG35" s="2"/>
-      <c r="BH35" s="2"/>
-      <c r="BI35" s="3"/>
-    </row>
-    <row r="36" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="27" t="s">
-        <v>27</v>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="3"/>
+    </row>
+    <row r="36" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U36" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V36" s="7"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AT36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AV36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AW36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AX36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AY36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="BB36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="BE36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="BF36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="BG36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="BH36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="BI36" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="X36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC36" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>6</v>
       </c>
@@ -1279,7 +1287,9 @@
       <c r="G37" s="2">
         <v>0.7273213345794074</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I37" s="3">
         <v>0.71988190851352263</v>
       </c>
@@ -1321,110 +1331,104 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="3"/>
+      <c r="X37" s="2">
+        <v>0.86379697851633042</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0.94229707914445049</v>
+      </c>
       <c r="Z37" s="2">
-        <v>0.86379697851633042</v>
-      </c>
-      <c r="AA37" s="2">
-        <v>0.94229707914445049</v>
+        <v>1.6457831293437744</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>1.1142832073232061</v>
       </c>
       <c r="AB37" s="2">
-        <v>1.6457831293437744</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>1.1142832073232061</v>
+        <v>0.37697494920390179</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>0.57204821580622756</v>
       </c>
       <c r="AD37" s="2">
-        <v>0.37697494920390179</v>
-      </c>
-      <c r="AE37" s="2">
-        <v>0.57204821580622756</v>
+        <v>0.19891043973128752</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>0.8306562947256706</v>
       </c>
       <c r="AF37" s="2">
-        <v>0.19891043973128752</v>
-      </c>
-      <c r="AG37" s="3">
-        <v>0.8306562947256706</v>
-      </c>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="3"/>
+        <v>2.0411278273426272</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>0.7205873182584025</v>
+      </c>
+      <c r="AH37" s="2">
+        <v>1.1832449506979554</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>1.1463496312412598</v>
+      </c>
+      <c r="AJ37" s="2">
+        <v>0.42045084754130602</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>0.79642410294595201</v>
+      </c>
       <c r="AL37" s="2">
-        <v>2.0411278273426272</v>
-      </c>
-      <c r="AM37" s="2">
-        <v>0.7205873182584025</v>
+        <v>0.42024472189774081</v>
+      </c>
+      <c r="AM37" s="3">
+        <v>0.62209328668700981</v>
       </c>
       <c r="AN37" s="2">
-        <v>1.1832449506979554</v>
-      </c>
-      <c r="AO37" s="3">
-        <v>1.1463496312412598</v>
+        <v>0.75143029789604054</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>0.89315954172173528</v>
       </c>
       <c r="AP37" s="2">
-        <v>0.42045084754130602</v>
-      </c>
-      <c r="AQ37" s="2">
-        <v>0.79642410294595201</v>
+        <v>1.7292762216577968</v>
+      </c>
+      <c r="AQ37" s="3">
+        <v>1.3863294855945965</v>
       </c>
       <c r="AR37" s="2">
-        <v>0.42024472189774081</v>
-      </c>
-      <c r="AS37" s="3">
-        <v>0.62209328668700981</v>
+        <v>0.84583787336445071</v>
+      </c>
+      <c r="AS37" s="2">
+        <v>0.48681973491702868</v>
       </c>
       <c r="AT37" s="2">
-        <v>0.75143029789604054</v>
-      </c>
-      <c r="AU37" s="2">
-        <v>0.89315954172173528</v>
+        <v>0.67584783614811206</v>
+      </c>
+      <c r="AU37" s="3">
+        <v>0.53478050450217285</v>
       </c>
       <c r="AV37" s="2">
-        <v>1.7292762216577968</v>
-      </c>
-      <c r="AW37" s="3">
-        <v>1.3863294855945965</v>
+        <v>0.49738106471352095</v>
+      </c>
+      <c r="AW37" s="2">
+        <v>0.40699307973459409</v>
       </c>
       <c r="AX37" s="2">
-        <v>0.84583787336445071</v>
-      </c>
-      <c r="AY37" s="2">
-        <v>0.48681973491702868</v>
-      </c>
-      <c r="AZ37" s="2">
-        <v>0.67584783614811206</v>
-      </c>
-      <c r="BA37" s="3">
-        <v>0.53478050450217285</v>
+        <v>0.32918536955651978</v>
+      </c>
+      <c r="AY37" s="3">
+        <v>1.567748602635632</v>
+      </c>
+      <c r="AZ37" s="1">
+        <v>5.1592870620864199E-2</v>
+      </c>
+      <c r="BA37" s="2">
+        <v>0.3686147119271328</v>
       </c>
       <c r="BB37" s="2">
-        <v>0.49738106471352095</v>
-      </c>
-      <c r="BC37" s="2">
-        <v>0.40699307973459409</v>
-      </c>
-      <c r="BD37" s="2">
-        <v>0.32918536955651978</v>
-      </c>
-      <c r="BE37" s="3">
-        <v>1.567748602635632</v>
-      </c>
-      <c r="BF37" s="1">
-        <v>5.1592870620864199E-2</v>
-      </c>
-      <c r="BG37" s="2">
-        <v>0.3686147119271328</v>
-      </c>
-      <c r="BH37" s="2">
         <v>5.6863987142221191E-2</v>
       </c>
-      <c r="BI37" s="3">
+      <c r="BC37" s="3">
         <v>0.48492869438437664</v>
       </c>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>7</v>
       </c>
@@ -1446,6 +1450,9 @@
       <c r="G38">
         <v>1.126274536983501</v>
       </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
       <c r="I38" s="8">
         <v>1.1321430943730424</v>
       </c>
@@ -1485,106 +1492,104 @@
       <c r="U38" s="8">
         <v>1.0206920584381116</v>
       </c>
-      <c r="Y38" s="8"/>
+      <c r="X38">
+        <v>1.1407523216043651</v>
+      </c>
+      <c r="Y38">
+        <v>1.6237895987097901</v>
+      </c>
       <c r="Z38">
-        <v>1.1407523216043651</v>
-      </c>
-      <c r="AA38">
-        <v>1.6237895987097901</v>
+        <v>1.3851882685478152</v>
+      </c>
+      <c r="AA38" s="8">
+        <v>1.4519650567137017</v>
       </c>
       <c r="AB38">
-        <v>1.3851882685478152</v>
-      </c>
-      <c r="AC38" s="8">
-        <v>1.4519650567137017</v>
+        <v>1.4693320902905649</v>
+      </c>
+      <c r="AC38">
+        <v>1.2838742731909598</v>
       </c>
       <c r="AD38">
-        <v>1.4693320902905649</v>
-      </c>
-      <c r="AE38">
-        <v>1.2838742731909598</v>
+        <v>0.68109107871641861</v>
+      </c>
+      <c r="AE38" s="8">
+        <v>1.3946080484484094</v>
       </c>
       <c r="AF38">
-        <v>0.68109107871641861</v>
-      </c>
-      <c r="AG38" s="8">
-        <v>1.3946080484484094</v>
-      </c>
-      <c r="AK38" s="8"/>
+        <v>1.4736762584431047</v>
+      </c>
+      <c r="AG38">
+        <v>1.2767748916901926</v>
+      </c>
+      <c r="AH38">
+        <v>1.0838099441906404</v>
+      </c>
+      <c r="AI38" s="8">
+        <v>1.1776909327979119</v>
+      </c>
+      <c r="AJ38">
+        <v>1.2242507561385911</v>
+      </c>
+      <c r="AK38">
+        <v>1.1246927718293098</v>
+      </c>
       <c r="AL38">
-        <v>1.4736762584431047</v>
-      </c>
-      <c r="AM38">
-        <v>1.2767748916901926</v>
+        <v>1.3688321256048339</v>
+      </c>
+      <c r="AM38" s="8">
+        <v>1.3568419993639562</v>
       </c>
       <c r="AN38">
-        <v>1.0838099441906404</v>
-      </c>
-      <c r="AO38" s="8">
-        <v>1.1776909327979119</v>
+        <v>0.7689794529366184</v>
+      </c>
+      <c r="AO38">
+        <v>1.4383285487950432</v>
       </c>
       <c r="AP38">
-        <v>1.2242507561385911</v>
-      </c>
-      <c r="AQ38">
-        <v>1.1246927718293098</v>
+        <v>1.5781462641842909</v>
+      </c>
+      <c r="AQ38" s="8">
+        <v>1.3773696830712638</v>
       </c>
       <c r="AR38">
-        <v>1.3688321256048339</v>
-      </c>
-      <c r="AS38" s="8">
-        <v>1.3568419993639562</v>
+        <v>2.8411178922092835</v>
+      </c>
+      <c r="AS38">
+        <v>0.89927492481517179</v>
       </c>
       <c r="AT38">
-        <v>0.7689794529366184</v>
-      </c>
-      <c r="AU38">
-        <v>1.4383285487950432</v>
+        <v>1.7571235624832577</v>
+      </c>
+      <c r="AU38" s="8">
+        <v>1.8496212822892015</v>
       </c>
       <c r="AV38">
-        <v>1.5781462641842909</v>
-      </c>
-      <c r="AW38" s="8">
-        <v>1.3773696830712638</v>
+        <v>0.66789711038850019</v>
+      </c>
+      <c r="AW38">
+        <v>0.50452548288380117</v>
       </c>
       <c r="AX38">
-        <v>2.8411178922092835</v>
-      </c>
-      <c r="AY38">
-        <v>0.89927492481517179</v>
-      </c>
-      <c r="AZ38">
-        <v>1.7571235624832577</v>
-      </c>
-      <c r="BA38" s="8">
-        <v>1.8496212822892015</v>
+        <v>0.48792570722757272</v>
+      </c>
+      <c r="AY38" s="8">
+        <v>0.8248072605210407</v>
+      </c>
+      <c r="AZ38" s="7">
+        <v>0.42595897338208477</v>
+      </c>
+      <c r="BA38">
+        <v>0.81739371235069136</v>
       </c>
       <c r="BB38">
-        <v>0.66789711038850019</v>
-      </c>
-      <c r="BC38">
-        <v>0.50452548288380117</v>
-      </c>
-      <c r="BD38">
-        <v>0.48792570722757272</v>
-      </c>
-      <c r="BE38" s="8">
-        <v>0.8248072605210407</v>
-      </c>
-      <c r="BF38" s="7">
-        <v>0.42595897338208477</v>
-      </c>
-      <c r="BG38">
-        <v>0.81739371235069136</v>
-      </c>
-      <c r="BH38">
         <v>0.55290890014106275</v>
       </c>
-      <c r="BI38" s="8">
+      <c r="BC38" s="8">
         <v>0.54555787936496136</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>8</v>
       </c>
@@ -1606,6 +1611,9 @@
       <c r="G39">
         <v>1.3822853056104658</v>
       </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
       <c r="I39" s="8">
         <v>1.0428536948794034</v>
       </c>
@@ -1645,106 +1653,104 @@
       <c r="U39" s="8">
         <v>0.92809306320113227</v>
       </c>
-      <c r="Y39" s="8"/>
+      <c r="X39">
+        <v>1.2647982951100394</v>
+      </c>
+      <c r="Y39">
+        <v>1.8857227640458161</v>
+      </c>
       <c r="Z39">
-        <v>1.2647982951100394</v>
-      </c>
-      <c r="AA39">
-        <v>1.8857227640458161</v>
+        <v>1.5904844927808302</v>
+      </c>
+      <c r="AA39" s="8">
+        <v>1.382616108821205</v>
       </c>
       <c r="AB39">
-        <v>1.5904844927808302</v>
-      </c>
-      <c r="AC39" s="8">
-        <v>1.382616108821205</v>
+        <v>2.4426636452097954</v>
+      </c>
+      <c r="AC39">
+        <v>2.1163413551731938</v>
       </c>
       <c r="AD39">
-        <v>2.4426636452097954</v>
-      </c>
-      <c r="AE39">
-        <v>2.1163413551731938</v>
+        <v>1.6232759038800302</v>
+      </c>
+      <c r="AE39" s="8">
+        <v>1.5723477110118984</v>
       </c>
       <c r="AF39">
-        <v>1.6232759038800302</v>
-      </c>
-      <c r="AG39" s="8">
-        <v>1.5723477110118984</v>
-      </c>
-      <c r="AK39" s="8"/>
+        <v>1.1915488519811424</v>
+      </c>
+      <c r="AG39">
+        <v>1.2830499150316459</v>
+      </c>
+      <c r="AH39">
+        <v>1.0973236374542348</v>
+      </c>
+      <c r="AI39" s="8">
+        <v>1.153643144356733</v>
+      </c>
+      <c r="AJ39">
+        <v>1.3823520578832935</v>
+      </c>
+      <c r="AK39">
+        <v>1.1839283508275869</v>
+      </c>
       <c r="AL39">
-        <v>1.1915488519811424</v>
-      </c>
-      <c r="AM39">
-        <v>1.2830499150316459</v>
+        <v>1.2044660502436899</v>
+      </c>
+      <c r="AM39" s="8">
+        <v>1.2493247991470133</v>
       </c>
       <c r="AN39">
-        <v>1.0973236374542348</v>
-      </c>
-      <c r="AO39" s="8">
-        <v>1.153643144356733</v>
+        <v>0.9013945999377917</v>
+      </c>
+      <c r="AO39">
+        <v>1.2068360819078419</v>
       </c>
       <c r="AP39">
-        <v>1.3823520578832935</v>
-      </c>
-      <c r="AQ39">
-        <v>1.1839283508275869</v>
+        <v>1.0205528078801858</v>
+      </c>
+      <c r="AQ39" s="8">
+        <v>1.6689811317194807</v>
       </c>
       <c r="AR39">
-        <v>1.2044660502436899</v>
-      </c>
-      <c r="AS39" s="8">
-        <v>1.2493247991470133</v>
+        <v>1.4745552427480506</v>
+      </c>
+      <c r="AS39">
+        <v>1.3761203119150129</v>
       </c>
       <c r="AT39">
-        <v>0.9013945999377917</v>
-      </c>
-      <c r="AU39">
-        <v>1.2068360819078419</v>
+        <v>1.8230446241369014</v>
+      </c>
+      <c r="AU39" s="8">
+        <v>1.4690889967627456</v>
       </c>
       <c r="AV39">
-        <v>1.0205528078801858</v>
-      </c>
-      <c r="AW39" s="8">
-        <v>1.6689811317194807</v>
+        <v>0.49204194952876917</v>
+      </c>
+      <c r="AW39">
+        <v>0.50247690825519453</v>
       </c>
       <c r="AX39">
-        <v>1.4745552427480506</v>
-      </c>
-      <c r="AY39">
-        <v>1.3761203119150129</v>
-      </c>
-      <c r="AZ39">
-        <v>1.8230446241369014</v>
-      </c>
-      <c r="BA39" s="8">
-        <v>1.4690889967627456</v>
+        <v>0.38410668529730257</v>
+      </c>
+      <c r="AY39" s="8">
+        <v>0.97293121994432896</v>
+      </c>
+      <c r="AZ39" s="7">
+        <v>0.5426020769494273</v>
+      </c>
+      <c r="BA39">
+        <v>1.1128001752614323</v>
       </c>
       <c r="BB39">
-        <v>0.49204194952876917</v>
-      </c>
-      <c r="BC39">
-        <v>0.50247690825519453</v>
-      </c>
-      <c r="BD39">
-        <v>0.38410668529730257</v>
-      </c>
-      <c r="BE39" s="8">
-        <v>0.97293121994432896</v>
-      </c>
-      <c r="BF39" s="7">
-        <v>0.5426020769494273</v>
-      </c>
-      <c r="BG39">
-        <v>1.1128001752614323</v>
-      </c>
-      <c r="BH39">
         <v>0.68943444223670713</v>
       </c>
-      <c r="BI39" s="8">
+      <c r="BC39" s="8">
         <v>0.69530184489784974</v>
       </c>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>9</v>
       </c>
@@ -1766,6 +1772,9 @@
       <c r="G40">
         <v>1.1499561829829235</v>
       </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
       <c r="I40" s="8">
         <v>1.2232029434425307</v>
       </c>
@@ -1805,106 +1814,104 @@
       <c r="U40" s="8">
         <v>1.0942526307637184</v>
       </c>
-      <c r="Y40" s="8"/>
+      <c r="X40">
+        <v>1.4057929763849224</v>
+      </c>
+      <c r="Y40">
+        <v>1.4414352143043097</v>
+      </c>
       <c r="Z40">
-        <v>1.4057929763849224</v>
-      </c>
-      <c r="AA40">
-        <v>1.4414352143043097</v>
+        <v>1.5865199471926075</v>
+      </c>
+      <c r="AA40" s="8">
+        <v>1.3340512848559756</v>
       </c>
       <c r="AB40">
-        <v>1.5865199471926075</v>
-      </c>
-      <c r="AC40" s="8">
-        <v>1.3340512848559756</v>
+        <v>2.6552570032065628</v>
+      </c>
+      <c r="AC40">
+        <v>2.2215480128573959</v>
       </c>
       <c r="AD40">
-        <v>2.6552570032065628</v>
-      </c>
-      <c r="AE40">
-        <v>2.2215480128573959</v>
+        <v>1.8543619983960433</v>
+      </c>
+      <c r="AE40" s="8">
+        <v>1.6826812442208317</v>
       </c>
       <c r="AF40">
-        <v>1.8543619983960433</v>
-      </c>
-      <c r="AG40" s="8">
-        <v>1.6826812442208317</v>
-      </c>
-      <c r="AK40" s="8"/>
+        <v>0.78318880092010756</v>
+      </c>
+      <c r="AG40">
+        <v>1.2470404581548622</v>
+      </c>
+      <c r="AH40">
+        <v>1.1090758320243546</v>
+      </c>
+      <c r="AI40" s="8">
+        <v>1.0216964537210873</v>
+      </c>
+      <c r="AJ40">
+        <v>2.1301452481926288</v>
+      </c>
+      <c r="AK40">
+        <v>1.2138073508929532</v>
+      </c>
       <c r="AL40">
-        <v>0.78318880092010756</v>
-      </c>
-      <c r="AM40">
-        <v>1.2470404581548622</v>
+        <v>1.3447093598287694</v>
+      </c>
+      <c r="AM40" s="8">
+        <v>1.2556431495281253</v>
       </c>
       <c r="AN40">
-        <v>1.1090758320243546</v>
-      </c>
-      <c r="AO40" s="8">
-        <v>1.0216964537210873</v>
+        <v>1.2197897872194949</v>
+      </c>
+      <c r="AO40">
+        <v>1.3456756413437987</v>
       </c>
       <c r="AP40">
-        <v>2.1301452481926288</v>
-      </c>
-      <c r="AQ40">
-        <v>1.2138073508929532</v>
+        <v>1.6460910505557849</v>
+      </c>
+      <c r="AQ40" s="8">
+        <v>1.4665237648766554</v>
       </c>
       <c r="AR40">
-        <v>1.3447093598287694</v>
-      </c>
-      <c r="AS40" s="8">
-        <v>1.2556431495281253</v>
+        <v>1.3563166280153052</v>
+      </c>
+      <c r="AS40">
+        <v>1.1591747389054046</v>
       </c>
       <c r="AT40">
-        <v>1.2197897872194949</v>
-      </c>
-      <c r="AU40">
-        <v>1.3456756413437987</v>
+        <v>1.4854245019633958</v>
+      </c>
+      <c r="AU40" s="8">
+        <v>1.766244538625396</v>
       </c>
       <c r="AV40">
-        <v>1.6460910505557849</v>
-      </c>
-      <c r="AW40" s="8">
-        <v>1.4665237648766554</v>
+        <v>0.52029982215911308</v>
+      </c>
+      <c r="AW40">
+        <v>0.55479255679945749</v>
       </c>
       <c r="AX40">
-        <v>1.3563166280153052</v>
-      </c>
-      <c r="AY40">
-        <v>1.1591747389054046</v>
-      </c>
-      <c r="AZ40">
-        <v>1.4854245019633958</v>
-      </c>
-      <c r="BA40" s="8">
-        <v>1.766244538625396</v>
+        <v>0.63179483985813178</v>
+      </c>
+      <c r="AY40" s="8">
+        <v>0.82894186710250606</v>
+      </c>
+      <c r="AZ40" s="7">
+        <v>0.56679270828502326</v>
+      </c>
+      <c r="BA40">
+        <v>1.0428456133894641</v>
       </c>
       <c r="BB40">
-        <v>0.52029982215911308</v>
-      </c>
-      <c r="BC40">
-        <v>0.55479255679945749</v>
-      </c>
-      <c r="BD40">
-        <v>0.63179483985813178</v>
-      </c>
-      <c r="BE40" s="8">
-        <v>0.82894186710250606</v>
-      </c>
-      <c r="BF40" s="7">
-        <v>0.56679270828502326</v>
-      </c>
-      <c r="BG40">
-        <v>1.0428456133894641</v>
-      </c>
-      <c r="BH40">
         <v>0.8600870802691738</v>
       </c>
-      <c r="BI40" s="8">
+      <c r="BC40" s="8">
         <v>0.65500670685818474</v>
       </c>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>10</v>
       </c>
@@ -1926,6 +1933,9 @@
       <c r="G41">
         <v>1.1260830705594937</v>
       </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
       <c r="I41" s="8">
         <v>1.1697099568872797</v>
       </c>
@@ -1965,106 +1975,104 @@
       <c r="U41" s="8">
         <v>1.0431218737722279</v>
       </c>
-      <c r="Y41" s="8"/>
+      <c r="X41">
+        <v>1.0800759120388481</v>
+      </c>
+      <c r="Y41">
+        <v>1.4723814989819612</v>
+      </c>
       <c r="Z41">
-        <v>1.0800759120388481</v>
-      </c>
-      <c r="AA41">
-        <v>1.4723814989819612</v>
+        <v>1.7315642521946315</v>
+      </c>
+      <c r="AA41" s="8">
+        <v>1.3011960985415867</v>
       </c>
       <c r="AB41">
-        <v>1.7315642521946315</v>
-      </c>
-      <c r="AC41" s="8">
-        <v>1.3011960985415867</v>
+        <v>1.9528123111288151</v>
+      </c>
+      <c r="AC41">
+        <v>1.6122022361094075</v>
       </c>
       <c r="AD41">
-        <v>1.9528123111288151</v>
-      </c>
-      <c r="AE41">
-        <v>1.6122022361094075</v>
+        <v>1.6172334532586456</v>
+      </c>
+      <c r="AE41" s="8">
+        <v>1.5088150157554054</v>
       </c>
       <c r="AF41">
-        <v>1.6172334532586456</v>
-      </c>
-      <c r="AG41" s="8">
-        <v>1.5088150157554054</v>
-      </c>
-      <c r="AK41" s="8"/>
+        <v>1.0162573816414906</v>
+      </c>
+      <c r="AG41">
+        <v>1.1532723209655276</v>
+      </c>
+      <c r="AH41">
+        <v>0.85444430799626891</v>
+      </c>
+      <c r="AI41" s="8">
+        <v>0.95312555423810474</v>
+      </c>
+      <c r="AJ41">
+        <v>1.4825509893296152</v>
+      </c>
+      <c r="AK41">
+        <v>1.0441638464520333</v>
+      </c>
       <c r="AL41">
-        <v>1.0162573816414906</v>
-      </c>
-      <c r="AM41">
-        <v>1.1532723209655276</v>
+        <v>1.2768696078864437</v>
+      </c>
+      <c r="AM41" s="8">
+        <v>1.2130550401125961</v>
       </c>
       <c r="AN41">
-        <v>0.85444430799626891</v>
-      </c>
-      <c r="AO41" s="8">
-        <v>0.95312555423810474</v>
+        <v>1.3051880792741759</v>
+      </c>
+      <c r="AO41">
+        <v>1.0808326903721044</v>
       </c>
       <c r="AP41">
-        <v>1.4825509893296152</v>
-      </c>
-      <c r="AQ41">
-        <v>1.0441638464520333</v>
+        <v>1.7274438005408845</v>
+      </c>
+      <c r="AQ41" s="8">
+        <v>1.6552886689704063</v>
       </c>
       <c r="AR41">
-        <v>1.2768696078864437</v>
-      </c>
-      <c r="AS41" s="8">
-        <v>1.2130550401125961</v>
+        <v>0.63555578578271699</v>
+      </c>
+      <c r="AS41">
+        <v>1.0938295647379432</v>
       </c>
       <c r="AT41">
-        <v>1.3051880792741759</v>
-      </c>
-      <c r="AU41">
-        <v>1.0808326903721044</v>
+        <v>1.7859478751290603</v>
+      </c>
+      <c r="AU41" s="8">
+        <v>1.7299117398560966</v>
       </c>
       <c r="AV41">
-        <v>1.7274438005408845</v>
-      </c>
-      <c r="AW41" s="8">
-        <v>1.6552886689704063</v>
+        <v>0.41234052756436868</v>
+      </c>
+      <c r="AW41">
+        <v>0.33249610966354437</v>
       </c>
       <c r="AX41">
-        <v>0.63555578578271699</v>
-      </c>
-      <c r="AY41">
-        <v>1.0938295647379432</v>
-      </c>
-      <c r="AZ41">
-        <v>1.7859478751290603</v>
-      </c>
-      <c r="BA41" s="8">
-        <v>1.7299117398560966</v>
+        <v>0.51204795328437758</v>
+      </c>
+      <c r="AY41" s="8">
+        <v>0.81182605959273002</v>
+      </c>
+      <c r="AZ41" s="7">
+        <v>0.38393887080718364</v>
+      </c>
+      <c r="BA41">
+        <v>0.98098777147359373</v>
       </c>
       <c r="BB41">
-        <v>0.41234052756436868</v>
-      </c>
-      <c r="BC41">
-        <v>0.33249610966354437</v>
-      </c>
-      <c r="BD41">
-        <v>0.51204795328437758</v>
-      </c>
-      <c r="BE41" s="8">
-        <v>0.81182605959273002</v>
-      </c>
-      <c r="BF41" s="7">
-        <v>0.38393887080718364</v>
-      </c>
-      <c r="BG41">
-        <v>0.98098777147359373</v>
-      </c>
-      <c r="BH41">
         <v>0.68493099856018846</v>
       </c>
-      <c r="BI41" s="8">
+      <c r="BC41" s="8">
         <v>0.85353421041810662</v>
       </c>
     </row>
-    <row r="42" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
@@ -2086,7 +2094,9 @@
       <c r="G42" s="5">
         <v>0.96257748096001505</v>
       </c>
-      <c r="H42" s="5"/>
+      <c r="H42" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="I42" s="6">
         <v>1.246251625630211</v>
       </c>
@@ -2128,730 +2138,724 @@
       </c>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="6"/>
+      <c r="X42" s="5">
+        <v>1.0902129222502497</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>1.4703380173109215</v>
+      </c>
       <c r="Z42" s="5">
-        <v>1.0902129222502497</v>
-      </c>
-      <c r="AA42" s="5">
-        <v>1.4703380173109215</v>
+        <v>1.8335510060074798</v>
+      </c>
+      <c r="AA42" s="6">
+        <v>1.474154371563573</v>
       </c>
       <c r="AB42" s="5">
-        <v>1.8335510060074798</v>
-      </c>
-      <c r="AC42" s="6">
-        <v>1.474154371563573</v>
+        <v>1.1371663966520169</v>
+      </c>
+      <c r="AC42" s="5">
+        <v>1.3409196660185581</v>
       </c>
       <c r="AD42" s="5">
-        <v>1.1371663966520169</v>
-      </c>
-      <c r="AE42" s="5">
-        <v>1.3409196660185581</v>
+        <v>1.3652537729570935</v>
+      </c>
+      <c r="AE42" s="6">
+        <v>1.5210641552235227</v>
       </c>
       <c r="AF42" s="5">
-        <v>1.3652537729570935</v>
-      </c>
-      <c r="AG42" s="6">
-        <v>1.5210641552235227</v>
-      </c>
-      <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="6"/>
+        <v>1.0865306191669701</v>
+      </c>
+      <c r="AG42" s="5">
+        <v>0.89360676241694326</v>
+      </c>
+      <c r="AH42" s="5">
+        <v>1.1163489681243008</v>
+      </c>
+      <c r="AI42" s="6">
+        <v>1.1900156727057984</v>
+      </c>
+      <c r="AJ42" s="5">
+        <v>1.8716678697945015</v>
+      </c>
+      <c r="AK42" s="5">
+        <v>0.97175704633386617</v>
+      </c>
       <c r="AL42" s="5">
-        <v>1.0865306191669701</v>
-      </c>
-      <c r="AM42" s="5">
-        <v>0.89360676241694326</v>
+        <v>1.4081192087129848</v>
+      </c>
+      <c r="AM42" s="6">
+        <v>1.3791069532886235</v>
       </c>
       <c r="AN42" s="5">
-        <v>1.1163489681243008</v>
-      </c>
-      <c r="AO42" s="6">
-        <v>1.1900156727057984</v>
+        <v>1.3657168733331491</v>
+      </c>
+      <c r="AO42" s="5">
+        <v>1.0384003472032488</v>
       </c>
       <c r="AP42" s="5">
-        <v>1.8716678697945015</v>
-      </c>
-      <c r="AQ42" s="5">
-        <v>0.97175704633386617</v>
+        <v>1.472960973383596</v>
+      </c>
+      <c r="AQ42" s="6">
+        <v>1.5431565147574986</v>
       </c>
       <c r="AR42" s="5">
-        <v>1.4081192087129848</v>
-      </c>
-      <c r="AS42" s="6">
-        <v>1.3791069532886235</v>
+        <v>1.3045348979380307</v>
+      </c>
+      <c r="AS42" s="5">
+        <v>1.1055971178998225</v>
       </c>
       <c r="AT42" s="5">
-        <v>1.3657168733331491</v>
-      </c>
-      <c r="AU42" s="5">
-        <v>1.0384003472032488</v>
+        <v>1.9809858341758488</v>
+      </c>
+      <c r="AU42" s="6">
+        <v>1.8358010406614378</v>
       </c>
       <c r="AV42" s="5">
-        <v>1.472960973383596</v>
-      </c>
-      <c r="AW42" s="6">
-        <v>1.5431565147574986</v>
+        <v>0.6536096949668313</v>
+      </c>
+      <c r="AW42" s="5">
+        <v>0.35456001575424761</v>
       </c>
       <c r="AX42" s="5">
-        <v>1.3045348979380307</v>
-      </c>
-      <c r="AY42" s="5">
-        <v>1.1055971178998225</v>
-      </c>
-      <c r="AZ42" s="5">
-        <v>1.9809858341758488</v>
-      </c>
-      <c r="BA42" s="6">
-        <v>1.8358010406614378</v>
+        <v>0.53210224598083233</v>
+      </c>
+      <c r="AY42" s="6">
+        <v>0.83679966550776985</v>
+      </c>
+      <c r="AZ42" s="4">
+        <v>0.33043521023046235</v>
+      </c>
+      <c r="BA42" s="5">
+        <v>0.84548497007842138</v>
       </c>
       <c r="BB42" s="5">
-        <v>0.6536096949668313</v>
-      </c>
-      <c r="BC42" s="5">
-        <v>0.35456001575424761</v>
-      </c>
-      <c r="BD42" s="5">
-        <v>0.53210224598083233</v>
-      </c>
-      <c r="BE42" s="6">
-        <v>0.83679966550776985</v>
-      </c>
-      <c r="BF42" s="4">
-        <v>0.33043521023046235</v>
-      </c>
-      <c r="BG42" s="5">
-        <v>0.84548497007842138</v>
-      </c>
-      <c r="BH42" s="5">
         <v>0.6451939136198005</v>
       </c>
-      <c r="BI42" s="6">
+      <c r="BC42" s="6">
         <v>1.1041298708434732</v>
       </c>
     </row>
-    <row r="43" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="44" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="X44" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y44" s="36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="37" t="s">
+    <row r="43" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="X44" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y44" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="M46" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="U46" s="33"/>
+      <c r="X46" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y46" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="33" t="s">
+      <c r="Z46" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA46" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB46" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" s="33" t="s">
+      <c r="AC46" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD46" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="I46" s="33" t="s">
+      <c r="AE46" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF46" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J46" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="K46" s="31" t="s">
+      <c r="AG46" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH46" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L46" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="M46" s="33" t="s">
+      <c r="AI46" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ46" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="N46" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="U46" s="34"/>
-      <c r="X46" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y46" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA46" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB46" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD46" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE46" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF46" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG46" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH46" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI46" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ46" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK46" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="AK46" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="16">
         <v>1.1334481390802806</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="17">
         <v>0.55356715600928674</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="17">
         <v>0.46913355171619897</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="17">
         <v>0.66864324696201172</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="17">
         <v>0.28196733540133012</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="17">
         <v>1.1415400985819404</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="17">
         <v>0.49464747486677185</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="17">
         <v>1.2728274318850612</v>
       </c>
-      <c r="J47" s="18">
+      <c r="J47" s="17">
         <v>0.56480323976800217</v>
       </c>
-      <c r="K47" s="18">
+      <c r="K47" s="17">
         <v>1.1900488867175423</v>
       </c>
-      <c r="L47" s="18">
+      <c r="L47" s="17">
         <v>0.63582148723294107</v>
       </c>
-      <c r="M47" s="18">
+      <c r="M47" s="17">
         <v>0.70032702916006673</v>
       </c>
-      <c r="N47" s="23">
+      <c r="N47" s="22">
         <v>0.24050006601864871</v>
       </c>
       <c r="X47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Y47" s="17">
+      <c r="Y47" s="16">
         <v>5.1552923261487686E-2</v>
       </c>
-      <c r="Z47" s="18">
+      <c r="Z47" s="17">
         <v>0.14726591142945225</v>
       </c>
-      <c r="AA47" s="18">
+      <c r="AA47" s="17">
         <v>0.15843182056718885</v>
       </c>
-      <c r="AB47" s="18">
+      <c r="AB47" s="17">
         <v>5.8678904682631886E-2</v>
       </c>
-      <c r="AC47" s="18">
+      <c r="AC47" s="17">
         <v>5.1588315924958682E-2</v>
       </c>
-      <c r="AD47" s="18">
+      <c r="AD47" s="17">
         <v>0.17603100904180624</v>
       </c>
-      <c r="AE47" s="18">
+      <c r="AE47" s="17">
         <v>0.13546217767564991</v>
       </c>
-      <c r="AF47" s="18">
+      <c r="AF47" s="17">
         <v>0.27677853597987706</v>
       </c>
-      <c r="AG47" s="26">
+      <c r="AG47" s="25">
         <v>9.0675774036627035E-2</v>
       </c>
-      <c r="AH47" s="18">
+      <c r="AH47" s="17">
         <v>0.22542954218449088</v>
       </c>
-      <c r="AI47" s="18">
+      <c r="AI47" s="17">
         <v>8.0684464342911211E-2</v>
       </c>
-      <c r="AJ47" s="18">
+      <c r="AJ47" s="17">
         <v>0.29117551808642622</v>
       </c>
-      <c r="AK47" s="23">
+      <c r="AK47" s="22">
         <v>0.11013887248952782</v>
       </c>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="18">
         <v>1.2569835524345678</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="19">
         <v>0.983758984695419</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="19">
         <v>1.2165129541075239</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="19">
         <v>0.86945353254272462</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="19">
         <v>0.97841875250111721</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G48" s="19">
         <v>1.400423811393918</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="19">
         <v>1.2072263726615882</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="19">
         <v>1.2529880067804624</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="19">
         <v>1.2686544132341728</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K48" s="19">
         <v>1.2907059872468043</v>
       </c>
-      <c r="L48" s="20">
+      <c r="L48" s="19">
         <v>1.8367844154492288</v>
       </c>
-      <c r="M48" s="20">
+      <c r="M48" s="19">
         <v>0.62128889025522871</v>
       </c>
-      <c r="N48" s="24">
+      <c r="N48" s="23">
         <v>0.58545486630970012</v>
       </c>
       <c r="X48" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Y48" s="19">
+      <c r="Y48" s="18">
         <v>5.5468723237179759E-2</v>
       </c>
-      <c r="Z48" s="20">
+      <c r="Z48" s="19">
         <v>0.12597179246787688</v>
       </c>
-      <c r="AA48" s="20">
+      <c r="AA48" s="19">
         <v>5.8939814089666386E-2</v>
       </c>
-      <c r="AB48" s="20">
+      <c r="AB48" s="19">
         <v>7.1688739120850345E-2</v>
       </c>
-      <c r="AC48" s="20">
+      <c r="AC48" s="19">
         <v>6.6856040391942734E-2</v>
       </c>
-      <c r="AD48" s="20">
+      <c r="AD48" s="19">
         <v>0.10008753639010831</v>
       </c>
-      <c r="AE48" s="20">
+      <c r="AE48" s="19">
         <v>0.17946785873446536</v>
       </c>
-      <c r="AF48" s="20">
+      <c r="AF48" s="19">
         <v>8.344658297757658E-2</v>
       </c>
-      <c r="AG48" s="20">
+      <c r="AG48" s="19">
         <v>5.8101393674235016E-2</v>
       </c>
-      <c r="AH48" s="20">
+      <c r="AH48" s="19">
         <v>0.17891420342844774</v>
       </c>
-      <c r="AI48" s="20">
+      <c r="AI48" s="19">
         <v>0.39729506396541509</v>
       </c>
-      <c r="AJ48" s="20">
+      <c r="AJ48" s="19">
         <v>7.906299445584386E-2</v>
       </c>
-      <c r="AK48" s="24">
+      <c r="AK48" s="23">
         <v>8.2606283883613768E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="18">
         <v>1.0255977770189946</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="19">
         <v>1.1870504990850124</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="19">
         <v>1.3436227182127523</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="19">
         <v>0.93175070907836632</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="19">
         <v>0.99896553905766272</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="19">
         <v>1.5309054151894728</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="19">
         <v>1.9386571538187294</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="19">
         <v>1.1813913872059389</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="19">
         <v>1.2550178145253958</v>
       </c>
-      <c r="K49" s="20">
+      <c r="K49" s="19">
         <v>1.1994411553613249</v>
       </c>
-      <c r="L49" s="20">
+      <c r="L49" s="19">
         <v>1.5357022938906777</v>
       </c>
-      <c r="M49" s="20">
+      <c r="M49" s="19">
         <v>0.58788919075639878</v>
       </c>
-      <c r="N49" s="24">
+      <c r="N49" s="23">
         <v>0.76003463483635414</v>
       </c>
       <c r="X49" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Y49" s="19">
+      <c r="Y49" s="18">
         <v>1.3592250825395755E-2</v>
       </c>
-      <c r="Z49" s="20">
+      <c r="Z49" s="19">
         <v>8.7688529539887941E-2</v>
       </c>
-      <c r="AA49" s="20">
+      <c r="AA49" s="19">
         <v>0.18384809187462786</v>
       </c>
-      <c r="AB49" s="20">
+      <c r="AB49" s="19">
         <v>6.4212773869673376E-2</v>
       </c>
-      <c r="AC49" s="20">
+      <c r="AC49" s="19">
         <v>5.4680637140595408E-2</v>
       </c>
-      <c r="AD49" s="20">
+      <c r="AD49" s="19">
         <v>0.13609057500926611</v>
       </c>
-      <c r="AE49" s="20">
+      <c r="AE49" s="19">
         <v>0.20801485513412582</v>
       </c>
-      <c r="AF49" s="20">
+      <c r="AF49" s="19">
         <v>3.9024545587663155E-2</v>
       </c>
-      <c r="AG49" s="20">
+      <c r="AG49" s="19">
         <v>4.4586631662848292E-2</v>
       </c>
-      <c r="AH49" s="20">
+      <c r="AH49" s="19">
         <v>0.16866022659018062</v>
       </c>
-      <c r="AI49" s="20">
+      <c r="AI49" s="19">
         <v>9.8407450996822993E-2</v>
       </c>
-      <c r="AJ49" s="20">
+      <c r="AJ49" s="19">
         <v>0.13110638982182832</v>
       </c>
-      <c r="AK49" s="24">
+      <c r="AK49" s="23">
         <v>0.12277865077344761</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="18">
         <v>1.0067403544061182</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="19">
         <v>1.2187670185375825</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="19">
         <v>1.3445926057322521</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="19">
         <v>1.0386153743136295</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="19">
         <v>1.0175895701989066</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G50" s="19">
         <v>1.4419498556844537</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="19">
         <v>2.1034620646702082</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50" s="19">
         <v>1.0402503862051029</v>
       </c>
-      <c r="J50" s="20">
+      <c r="J50" s="19">
         <v>1.4860762771106191</v>
       </c>
-      <c r="K50" s="20">
+      <c r="K50" s="19">
         <v>1.4195200609989334</v>
       </c>
-      <c r="L50" s="20">
+      <c r="L50" s="19">
         <v>1.4417901018773753</v>
       </c>
-      <c r="M50" s="20">
+      <c r="M50" s="19">
         <v>0.63395727147980208</v>
       </c>
-      <c r="N50" s="24">
+      <c r="N50" s="23">
         <v>0.7811830272004614</v>
       </c>
       <c r="X50" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Y50" s="19">
+      <c r="Y50" s="18">
         <v>2.9365012949401085E-2</v>
       </c>
-      <c r="Z50" s="20">
+      <c r="Z50" s="19">
         <v>3.3351794630594664E-2</v>
       </c>
-      <c r="AA50" s="20">
+      <c r="AA50" s="19">
         <v>0.14358141227506827</v>
       </c>
-      <c r="AB50" s="20">
+      <c r="AB50" s="19">
         <v>6.2067042471399804E-2</v>
       </c>
-      <c r="AC50" s="20">
+      <c r="AC50" s="19">
         <v>4.6658868903758047E-2</v>
       </c>
-      <c r="AD50" s="20">
+      <c r="AD50" s="19">
         <v>5.3111673012260295E-2</v>
       </c>
-      <c r="AE50" s="20">
+      <c r="AE50" s="19">
         <v>0.21554761408047987</v>
       </c>
-      <c r="AF50" s="20">
+      <c r="AF50" s="19">
         <v>9.7435441399703851E-2</v>
       </c>
-      <c r="AG50" s="20">
+      <c r="AG50" s="19">
         <v>0.21641765933867774</v>
       </c>
-      <c r="AH50" s="20">
+      <c r="AH50" s="19">
         <v>9.0778550176244074E-2</v>
       </c>
-      <c r="AI50" s="20">
+      <c r="AI50" s="19">
         <v>0.12726344084816474</v>
       </c>
-      <c r="AJ50" s="20">
+      <c r="AJ50" s="19">
         <v>6.904632290304194E-2</v>
       </c>
-      <c r="AK50" s="24">
+      <c r="AK50" s="23">
         <v>0.10668365669178521</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="18">
         <v>0.99600464450533466</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="19">
         <v>1.3320285294360776</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="19">
         <v>1.2516817448540047</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="19">
         <v>0.9327985884946326</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="19">
         <v>1.0670211019557554</v>
       </c>
-      <c r="G51" s="20">
+      <c r="G51" s="19">
         <v>1.3963044404392568</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="19">
         <v>1.6727657540630683</v>
       </c>
-      <c r="I51" s="20">
+      <c r="I51" s="19">
         <v>0.99427489121034796</v>
       </c>
-      <c r="J51" s="20">
+      <c r="J51" s="19">
         <v>1.254159870945172</v>
       </c>
-      <c r="K51" s="20">
+      <c r="K51" s="19">
         <v>1.4421883097893926</v>
       </c>
-      <c r="L51" s="20">
+      <c r="L51" s="19">
         <v>1.3113112413764543</v>
       </c>
-      <c r="M51" s="20">
+      <c r="M51" s="19">
         <v>0.51717766252625519</v>
       </c>
-      <c r="N51" s="24">
+      <c r="N51" s="23">
         <v>0.72584796281476816</v>
       </c>
       <c r="X51" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Y51" s="19">
+      <c r="Y51" s="18">
         <v>5.8300778370029907E-2</v>
       </c>
-      <c r="Z51" s="20">
+      <c r="Z51" s="19">
         <v>0.15983555919594375</v>
       </c>
-      <c r="AA51" s="20">
+      <c r="AA51" s="19">
         <v>7.8775172720050843E-2</v>
       </c>
-      <c r="AB51" s="20">
+      <c r="AB51" s="19">
         <v>3.4128973607453823E-2</v>
       </c>
-      <c r="AC51" s="20">
+      <c r="AC51" s="19">
         <v>0.10490464872902761</v>
       </c>
-      <c r="AD51" s="20">
+      <c r="AD51" s="19">
         <v>0.13760842364222353</v>
       </c>
-      <c r="AE51" s="20">
+      <c r="AE51" s="19">
         <v>9.6634058374692883E-2</v>
       </c>
-      <c r="AF51" s="20">
+      <c r="AF51" s="19">
         <v>6.2589450981211464E-2</v>
       </c>
-      <c r="AG51" s="20">
+      <c r="AG51" s="19">
         <v>9.0584294320049261E-2</v>
       </c>
-      <c r="AH51" s="20">
+      <c r="AH51" s="19">
         <v>0.15169305766707186</v>
       </c>
-      <c r="AI51" s="20">
+      <c r="AI51" s="19">
         <v>0.27453749392775861</v>
       </c>
-      <c r="AJ51" s="20">
+      <c r="AJ51" s="19">
         <v>0.10485787708669782</v>
       </c>
-      <c r="AK51" s="24">
+      <c r="AK51" s="23">
         <v>0.12909173900458812</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="21">
+      <c r="B52" s="20">
         <v>1.0960442089199871</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52" s="21">
         <v>1.1134436235140859</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="21">
         <v>1.3095857170401934</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="21">
         <v>1.0090027624685296</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="21">
         <v>1.0945795877352491</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G52" s="21">
         <v>1.467064079283056</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="21">
         <v>1.3411009977127977</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I52" s="21">
         <v>1.0716255056035031</v>
       </c>
-      <c r="J52" s="22">
+      <c r="J52" s="21">
         <v>1.4076627695324939</v>
       </c>
-      <c r="K52" s="22">
+      <c r="K52" s="21">
         <v>1.3550586771693731</v>
       </c>
-      <c r="L52" s="22">
+      <c r="L52" s="21">
         <v>1.5567297226687848</v>
       </c>
-      <c r="M52" s="22">
+      <c r="M52" s="21">
         <v>0.59426790555242026</v>
       </c>
-      <c r="N52" s="25">
+      <c r="N52" s="24">
         <v>0.73131099119303933</v>
       </c>
       <c r="X52" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Y52" s="21">
+      <c r="Y52" s="20">
         <v>3.1247881306610159E-2</v>
       </c>
-      <c r="Z52" s="22">
+      <c r="Z52" s="21">
         <v>7.1348313602441316E-2</v>
       </c>
-      <c r="AA52" s="22">
+      <c r="AA52" s="21">
         <v>0.13305778397207235</v>
       </c>
-      <c r="AB52" s="22">
+      <c r="AB52" s="21">
         <v>1.7691564636079245E-2</v>
       </c>
-      <c r="AC52" s="22">
+      <c r="AC52" s="21">
         <v>8.8711832744177987E-2</v>
       </c>
-      <c r="AD52" s="22">
+      <c r="AD52" s="21">
         <v>0.15176474473443838</v>
       </c>
-      <c r="AE52" s="22">
+      <c r="AE52" s="21">
         <v>7.8824408764161941E-2</v>
       </c>
-      <c r="AF52" s="22">
+      <c r="AF52" s="21">
         <v>6.3198928724057329E-2</v>
       </c>
-      <c r="AG52" s="22">
+      <c r="AG52" s="21">
         <v>0.18396788115604923</v>
       </c>
-      <c r="AH52" s="22">
+      <c r="AH52" s="21">
         <v>0.111679542680652</v>
       </c>
-      <c r="AI52" s="22">
+      <c r="AI52" s="21">
         <v>0.20916439017031885</v>
       </c>
-      <c r="AJ52" s="22">
+      <c r="AJ52" s="21">
         <v>0.10151664240384721</v>
       </c>
-      <c r="AK52" s="25">
+      <c r="AK52" s="24">
         <v>0.16333685981493282</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="B62" s="29"/>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B62" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2864,121 +2868,123 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="158" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="8" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="8" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="16"/>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="37" t="s">
+        <v>48</v>
+      </c>
       <c r="B16" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
